--- a/scr/template_ampliacao.xlsx
+++ b/scr/template_ampliacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Setorial Análise\. 1-SETORIAL CONSTRUÇÃO E INDÚSTRIA\App - Auto_Forms\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F54AB91-D5EA-49EC-A86A-F0420E2CB32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40119B81-AF0F-4785-82C8-50386EB28E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulário de Ampliação" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Legenda - Status de Retorno</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>PRAZO DE RETORNO:</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Sob encomenda</t>
   </si>
 </sst>
 </file>
@@ -562,9 +568,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -574,13 +577,28 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,29 +644,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -935,154 +941,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="43.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="1.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="43.7265625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
+    <row r="1" spans="2:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="22" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="2:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="2:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="14" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="14" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="14" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="15" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="2:9" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="2:9" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1103,6 +1109,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="F10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -1113,11 +1124,6 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1126,107 +1132,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFDC9C8-424E-4C4A-8D8C-EC453E3F7FC8}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B12" s="38" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1239,9 +1253,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1460,27 +1477,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CCB3354-6A76-4061-8F3E-2AA2164EB164}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE873CEF-EF8C-4EF0-B81F-362D1B2122FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="002e011e-cb7d-41d7-be63-560b223b4bfb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ac9ca862-26d5-4dcc-a7f4-6c7eaed10996"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1505,9 +1510,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE873CEF-EF8C-4EF0-B81F-362D1B2122FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CCB3354-6A76-4061-8F3E-2AA2164EB164}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="002e011e-cb7d-41d7-be63-560b223b4bfb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ac9ca862-26d5-4dcc-a7f4-6c7eaed10996"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/scr/template_ampliacao.xlsx
+++ b/scr/template_ampliacao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Setorial Análise\. 1-SETORIAL CONSTRUÇÃO E INDÚSTRIA\App - Auto_Forms\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Otimização e Automatização\5. Projetos\0. Streamlit\app_autoforms\scr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40119B81-AF0F-4785-82C8-50386EB28E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2847CB8-8428-4A2B-AB11-33456C8B8BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulário de Ampliação" sheetId="1" r:id="rId1"/>
@@ -581,6 +581,57 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,62 +650,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -941,9 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
@@ -960,126 +958,126 @@
   <sheetData>
     <row r="1" spans="2:9" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="2:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
       <c r="F9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="2:9" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
@@ -1109,11 +1107,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="F10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -1124,6 +1117,11 @@
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="F10:I10"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1134,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFDC9C8-424E-4C4A-8D8C-EC453E3F7FC8}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1145,10 +1143,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1237,10 +1235,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1253,12 +1251,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1477,15 +1472,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE873CEF-EF8C-4EF0-B81F-362D1B2122FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CCB3354-6A76-4061-8F3E-2AA2164EB164}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="002e011e-cb7d-41d7-be63-560b223b4bfb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ac9ca862-26d5-4dcc-a7f4-6c7eaed10996"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1510,18 +1517,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CCB3354-6A76-4061-8F3E-2AA2164EB164}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE873CEF-EF8C-4EF0-B81F-362D1B2122FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="002e011e-cb7d-41d7-be63-560b223b4bfb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ac9ca862-26d5-4dcc-a7f4-6c7eaed10996"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>